--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_10_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8650.678211684042</v>
+        <v>1721484.964125125</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8650.678211684042</v>
+        <v>1721484.964125125</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16759.04159611628</v>
+        <v>1014896.635354578</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16759.04159611628</v>
+        <v>1014896.635354578</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112592326.363755</v>
+        <v>45174528.9222587</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10468.37747091005</v>
+        <v>1071672.90032429</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20011.62673784109</v>
+        <v>1984721.254565421</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29554.87600477211</v>
+        <v>2897769.608806553</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40110.53429142909</v>
+        <v>3755960.765171358</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50666.19257808604</v>
+        <v>4614151.921536162</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60316.66387247734</v>
+        <v>5527200.275777292</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70187.6717859816</v>
+        <v>6451501.652378286</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80002.13184843125</v>
+        <v>7364550.006619414</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90387.28271031092</v>
+        <v>8202052.691315845</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100447.3678270418</v>
+        <v>9088936.683679705</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110124.0854961486</v>
+        <v>10007208.06648923</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119774.5567905399</v>
+        <v>10920256.42073037</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129425.0280849312</v>
+        <v>11833304.7749715</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139529.0135032648</v>
+        <v>12711833.20386375</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150004.655447094</v>
+        <v>13548829.10758995</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>133</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>84</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>1231</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>143</v>
